--- a/data/Subset1_WithDialogActs/Math HK3 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math HK3 transcript.xlsx_with_dialog_acts.xlsx
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1987,12 +1987,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2365,12 +2365,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2659,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2869,12 +2869,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2953,12 +2953,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3751,12 +3751,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4003,12 +4003,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4213,12 +4213,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4423,12 +4423,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4465,12 +4465,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4549,12 +4549,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4675,12 +4675,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5645,12 +5645,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5771,12 +5771,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6191,12 +6191,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6619,12 +6619,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6703,12 +6703,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6875,12 +6875,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7295,12 +7295,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7337,12 +7337,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7547,12 +7547,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7967,12 +7967,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8471,12 +8471,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8513,12 +8513,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8807,12 +8807,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8891,12 +8891,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9101,12 +9101,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9353,12 +9353,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9395,12 +9395,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9857,12 +9857,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10109,12 +10109,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10277,12 +10277,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10571,12 +10571,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10697,12 +10697,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11075,12 +11075,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11327,12 +11327,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11705,12 +11705,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11747,12 +11747,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11789,12 +11789,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12083,12 +12083,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12545,12 +12545,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12629,12 +12629,12 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12671,12 +12671,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13011,12 +13011,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13053,12 +13053,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13095,12 +13095,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13179,12 +13179,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13221,12 +13221,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13263,12 +13263,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13389,12 +13389,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13431,12 +13431,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13473,12 +13473,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13557,12 +13557,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13725,12 +13725,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14061,12 +14061,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14741,12 +14741,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14825,12 +14825,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15203,12 +15203,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15329,12 +15329,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15539,12 +15539,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15875,12 +15875,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16001,12 +16001,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16043,12 +16043,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16757,12 +16757,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16799,12 +16799,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17051,12 +17051,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17429,12 +17429,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17555,12 +17555,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17849,12 +17849,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17975,12 +17975,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18143,12 +18143,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18185,12 +18185,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18437,12 +18437,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19071,12 +19071,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19369,12 +19369,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19531,12 +19531,12 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20291,12 +20291,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20333,12 +20333,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20459,12 +20459,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
